--- a/natmiOut/OldD4/LR-pairs_lrc2p/Fndc5-Itgb5.xlsx
+++ b/natmiOut/OldD4/LR-pairs_lrc2p/Fndc5-Itgb5.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,9 +76,15 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>FAPs</t>
   </si>
   <si>
+    <t>M2</t>
+  </si>
+  <si>
     <t>sCs</t>
   </si>
   <si>
@@ -88,13 +94,7 @@
     <t>Itgb5</t>
   </si>
   <si>
-    <t>ECs</t>
-  </si>
-  <si>
     <t>M1</t>
-  </si>
-  <si>
-    <t>M2</t>
   </si>
 </sst>
 </file>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T11"/>
+  <dimension ref="A1:T21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,61 +525,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>1.08106413909736</v>
+        <v>0.4021426666666666</v>
       </c>
       <c r="H2">
-        <v>1.08106413909736</v>
+        <v>1.206428</v>
       </c>
       <c r="I2">
-        <v>0.6959005399948903</v>
+        <v>0.1795998161169229</v>
       </c>
       <c r="J2">
-        <v>0.6959005399948903</v>
+        <v>0.1934923663387552</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>5.15789459718028</v>
+        <v>5.383805333333334</v>
       </c>
       <c r="N2">
-        <v>5.15789459718028</v>
+        <v>16.151416</v>
       </c>
       <c r="O2">
-        <v>0.03682775719218131</v>
+        <v>0.03698491560717504</v>
       </c>
       <c r="P2">
-        <v>0.03682775719218131</v>
+        <v>0.03822320902082743</v>
       </c>
       <c r="Q2">
-        <v>5.576014882255625</v>
+        <v>2.165057833560889</v>
       </c>
       <c r="R2">
-        <v>5.576014882255625</v>
+        <v>19.485520502048</v>
       </c>
       <c r="S2">
-        <v>0.02562845611683968</v>
+        <v>0.00664248404214855</v>
       </c>
       <c r="T2">
-        <v>0.02562845611683968</v>
+        <v>0.007395899162500752</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,61 +587,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>1.08106413909736</v>
+        <v>0.4021426666666666</v>
       </c>
       <c r="H3">
-        <v>1.08106413909736</v>
+        <v>1.206428</v>
       </c>
       <c r="I3">
-        <v>0.6959005399948903</v>
+        <v>0.1795998161169229</v>
       </c>
       <c r="J3">
-        <v>0.6959005399948903</v>
+        <v>0.1934923663387552</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>33.0379326221677</v>
+        <v>35.36891033333333</v>
       </c>
       <c r="N3">
-        <v>33.0379326221677</v>
+        <v>106.106731</v>
       </c>
       <c r="O3">
-        <v>0.2358933355105766</v>
+        <v>0.2429724112974505</v>
       </c>
       <c r="P3">
-        <v>0.2358933355105766</v>
+        <v>0.2511073801535239</v>
       </c>
       <c r="Q3">
-        <v>35.71612418774031</v>
+        <v>14.22334791854089</v>
       </c>
       <c r="R3">
-        <v>35.71612418774031</v>
+        <v>128.010131266868</v>
       </c>
       <c r="S3">
-        <v>0.1641582995630061</v>
+        <v>0.04363780039050748</v>
       </c>
       <c r="T3">
-        <v>0.1641582995630061</v>
+        <v>0.04858736119103071</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,61 +649,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>1.08106413909736</v>
+        <v>0.4021426666666666</v>
       </c>
       <c r="H4">
-        <v>1.08106413909736</v>
+        <v>1.206428</v>
       </c>
       <c r="I4">
-        <v>0.6959005399948903</v>
+        <v>0.1795998161169229</v>
       </c>
       <c r="J4">
-        <v>0.6959005399948903</v>
+        <v>0.1934923663387552</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>38.1707303424675</v>
+        <v>40.25188966666666</v>
       </c>
       <c r="N4">
-        <v>38.1707303424675</v>
+        <v>120.755669</v>
       </c>
       <c r="O4">
-        <v>0.2725418991053273</v>
+        <v>0.2765168222435087</v>
       </c>
       <c r="P4">
-        <v>0.2725418991053273</v>
+        <v>0.2857748928413986</v>
       </c>
       <c r="Q4">
-        <v>41.26500773639711</v>
+        <v>16.18700224892577</v>
       </c>
       <c r="R4">
-        <v>41.26500773639711</v>
+        <v>145.683020240332</v>
       </c>
       <c r="S4">
-        <v>0.1896620547586302</v>
+        <v>0.04966237042817003</v>
       </c>
       <c r="T4">
-        <v>0.1896620547586302</v>
+        <v>0.05529526025608639</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,61 +711,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" t="s">
         <v>22</v>
       </c>
-      <c r="C5" t="s">
-        <v>23</v>
-      </c>
-      <c r="D5" t="s">
-        <v>26</v>
-      </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G5">
-        <v>1.08106413909736</v>
+        <v>0.4021426666666666</v>
       </c>
       <c r="H5">
-        <v>1.08106413909736</v>
+        <v>1.206428</v>
       </c>
       <c r="I5">
-        <v>0.6959005399948903</v>
+        <v>0.1795998161169229</v>
       </c>
       <c r="J5">
-        <v>0.6959005399948903</v>
+        <v>0.1934923663387552</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>49.6713285444044</v>
+        <v>50.41540533333333</v>
       </c>
       <c r="N5">
-        <v>49.6713285444044</v>
+        <v>151.246216</v>
       </c>
       <c r="O5">
-        <v>0.3546570393366362</v>
+        <v>0.3463367258118153</v>
       </c>
       <c r="P5">
-        <v>0.3546570393366362</v>
+        <v>0.3579324393463219</v>
       </c>
       <c r="Q5">
-        <v>53.69789203067867</v>
+        <v>20.27418554182755</v>
       </c>
       <c r="R5">
-        <v>53.69789203067867</v>
+        <v>182.467669876448</v>
       </c>
       <c r="S5">
-        <v>0.2468060251873542</v>
+        <v>0.06220201227033918</v>
       </c>
       <c r="T5">
-        <v>0.2468060251873542</v>
+        <v>0.06925719467852277</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -773,61 +773,61 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" t="s">
         <v>23</v>
       </c>
-      <c r="D6" t="s">
-        <v>21</v>
-      </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G6">
-        <v>1.08106413909736</v>
+        <v>0.4021426666666666</v>
       </c>
       <c r="H6">
-        <v>1.08106413909736</v>
+        <v>1.206428</v>
       </c>
       <c r="I6">
-        <v>0.6959005399948903</v>
+        <v>0.1795998161169229</v>
       </c>
       <c r="J6">
-        <v>0.6959005399948903</v>
+        <v>0.1934923663387552</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>14.016654013191</v>
+        <v>14.1475875</v>
       </c>
       <c r="N6">
-        <v>14.016654013191</v>
+        <v>28.295175</v>
       </c>
       <c r="O6">
-        <v>0.1000799688552785</v>
+        <v>0.09718912504005058</v>
       </c>
       <c r="P6">
-        <v>0.1000799688552785</v>
+        <v>0.06696207863792814</v>
       </c>
       <c r="Q6">
-        <v>15.15290200379589</v>
+        <v>5.689348564149999</v>
       </c>
       <c r="R6">
-        <v>15.15290200379589</v>
+        <v>34.1360913849</v>
       </c>
       <c r="S6">
-        <v>0.06964570436906013</v>
+        <v>0.01745514898575772</v>
       </c>
       <c r="T6">
-        <v>0.06964570436906013</v>
+        <v>0.01295665105061452</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -835,61 +835,61 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D7" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0.4724109294883</v>
+        <v>1.21763</v>
       </c>
       <c r="H7">
-        <v>0.4724109294883</v>
+        <v>3.65289</v>
       </c>
       <c r="I7">
-        <v>0.3040994600051097</v>
+        <v>0.5438023423655177</v>
       </c>
       <c r="J7">
-        <v>0.3040994600051097</v>
+        <v>0.5858669809347723</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>5.15789459718028</v>
+        <v>5.383805333333334</v>
       </c>
       <c r="N7">
-        <v>5.15789459718028</v>
+        <v>16.151416</v>
       </c>
       <c r="O7">
-        <v>0.03682775719218131</v>
+        <v>0.03698491560717504</v>
       </c>
       <c r="P7">
-        <v>0.03682775719218131</v>
+        <v>0.03822320902082743</v>
       </c>
       <c r="Q7">
-        <v>2.436645780856617</v>
+        <v>6.555482888026668</v>
       </c>
       <c r="R7">
-        <v>2.436645780856617</v>
+        <v>58.99934599224001</v>
       </c>
       <c r="S7">
-        <v>0.01119930107534163</v>
+        <v>0.02011248373937278</v>
       </c>
       <c r="T7">
-        <v>0.01119930107534163</v>
+        <v>0.02239371607067092</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -897,61 +897,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C8" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D8" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>0.4724109294883</v>
+        <v>1.21763</v>
       </c>
       <c r="H8">
-        <v>0.4724109294883</v>
+        <v>3.65289</v>
       </c>
       <c r="I8">
-        <v>0.3040994600051097</v>
+        <v>0.5438023423655177</v>
       </c>
       <c r="J8">
-        <v>0.3040994600051097</v>
+        <v>0.5858669809347723</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>33.0379326221677</v>
+        <v>35.36891033333333</v>
       </c>
       <c r="N8">
-        <v>33.0379326221677</v>
+        <v>106.106731</v>
       </c>
       <c r="O8">
-        <v>0.2358933355105766</v>
+        <v>0.2429724112974505</v>
       </c>
       <c r="P8">
-        <v>0.2358933355105766</v>
+        <v>0.2511073801535239</v>
       </c>
       <c r="Q8">
-        <v>15.60748045841007</v>
+        <v>43.06624628917667</v>
       </c>
       <c r="R8">
-        <v>15.60748045841007</v>
+        <v>387.59621660259</v>
       </c>
       <c r="S8">
-        <v>0.07173503594757052</v>
+        <v>0.1321289663937516</v>
       </c>
       <c r="T8">
-        <v>0.07173503594757052</v>
+        <v>0.1471155227009852</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -959,61 +959,61 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C9" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>0.4724109294883</v>
+        <v>1.21763</v>
       </c>
       <c r="H9">
-        <v>0.4724109294883</v>
+        <v>3.65289</v>
       </c>
       <c r="I9">
-        <v>0.3040994600051097</v>
+        <v>0.5438023423655177</v>
       </c>
       <c r="J9">
-        <v>0.3040994600051097</v>
+        <v>0.5858669809347723</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>38.1707303424675</v>
+        <v>40.25188966666666</v>
       </c>
       <c r="N9">
-        <v>38.1707303424675</v>
+        <v>120.755669</v>
       </c>
       <c r="O9">
-        <v>0.2725418991053273</v>
+        <v>0.2765168222435087</v>
       </c>
       <c r="P9">
-        <v>0.2725418991053273</v>
+        <v>0.2857748928413986</v>
       </c>
       <c r="Q9">
-        <v>18.03227020033233</v>
+        <v>49.01190841482333</v>
       </c>
       <c r="R9">
-        <v>18.03227020033233</v>
+        <v>441.10717573341</v>
       </c>
       <c r="S9">
-        <v>0.08287984434669714</v>
+        <v>0.1503704956394895</v>
       </c>
       <c r="T9">
-        <v>0.08287984434669714</v>
+        <v>0.1674260736959483</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1021,61 +1021,61 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" t="s">
         <v>22</v>
       </c>
-      <c r="C10" t="s">
-        <v>23</v>
-      </c>
-      <c r="D10" t="s">
-        <v>26</v>
-      </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.4724109294883</v>
+        <v>1.21763</v>
       </c>
       <c r="H10">
-        <v>0.4724109294883</v>
+        <v>3.65289</v>
       </c>
       <c r="I10">
-        <v>0.3040994600051097</v>
+        <v>0.5438023423655177</v>
       </c>
       <c r="J10">
-        <v>0.3040994600051097</v>
+        <v>0.5858669809347723</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>49.6713285444044</v>
+        <v>50.41540533333333</v>
       </c>
       <c r="N10">
-        <v>49.6713285444044</v>
+        <v>151.246216</v>
       </c>
       <c r="O10">
-        <v>0.3546570393366362</v>
+        <v>0.3463367258118153</v>
       </c>
       <c r="P10">
-        <v>0.3546570393366362</v>
+        <v>0.3579324393463219</v>
       </c>
       <c r="Q10">
-        <v>23.46527848658081</v>
+        <v>61.38730999602667</v>
       </c>
       <c r="R10">
-        <v>23.46527848658081</v>
+        <v>552.4857899642401</v>
       </c>
       <c r="S10">
-        <v>0.107851014149282</v>
+        <v>0.1883387227436692</v>
       </c>
       <c r="T10">
-        <v>0.107851014149282</v>
+        <v>0.2097007976184481</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1083,61 +1083,681 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" t="s">
+        <v>23</v>
+      </c>
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>1.21763</v>
+      </c>
+      <c r="H11">
+        <v>3.65289</v>
+      </c>
+      <c r="I11">
+        <v>0.5438023423655177</v>
+      </c>
+      <c r="J11">
+        <v>0.5858669809347723</v>
+      </c>
+      <c r="K11">
+        <v>2</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>14.1475875</v>
+      </c>
+      <c r="N11">
+        <v>28.295175</v>
+      </c>
+      <c r="O11">
+        <v>0.09718912504005058</v>
+      </c>
+      <c r="P11">
+        <v>0.06696207863792814</v>
+      </c>
+      <c r="Q11">
+        <v>17.226526967625</v>
+      </c>
+      <c r="R11">
+        <v>103.35916180575</v>
+      </c>
+      <c r="S11">
+        <v>0.05285167384923469</v>
+      </c>
+      <c r="T11">
+        <v>0.03923087084871977</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
         <v>22</v>
       </c>
-      <c r="C11" t="s">
+      <c r="B12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" t="s">
+        <v>20</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
+      </c>
+      <c r="F12">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G12">
+        <v>0.1370353333333333</v>
+      </c>
+      <c r="H12">
+        <v>0.411106</v>
+      </c>
+      <c r="I12">
+        <v>0.06120096848263116</v>
+      </c>
+      <c r="J12">
+        <v>0.06593503529100808</v>
+      </c>
+      <c r="K12">
+        <v>3</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>5.383805333333334</v>
+      </c>
+      <c r="N12">
+        <v>16.151416</v>
+      </c>
+      <c r="O12">
+        <v>0.03698491560717504</v>
+      </c>
+      <c r="P12">
+        <v>0.03822320902082743</v>
+      </c>
+      <c r="Q12">
+        <v>0.7377715584551112</v>
+      </c>
+      <c r="R12">
+        <v>6.639944026096001</v>
+      </c>
+      <c r="S12">
+        <v>0.002263512654407493</v>
+      </c>
+      <c r="T12">
+        <v>0.002520248635723835</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" t="s">
+        <v>21</v>
+      </c>
+      <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="F13">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G13">
+        <v>0.1370353333333333</v>
+      </c>
+      <c r="H13">
+        <v>0.411106</v>
+      </c>
+      <c r="I13">
+        <v>0.06120096848263116</v>
+      </c>
+      <c r="J13">
+        <v>0.06593503529100808</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>35.36891033333333</v>
+      </c>
+      <c r="N13">
+        <v>106.106731</v>
+      </c>
+      <c r="O13">
+        <v>0.2429724112974505</v>
+      </c>
+      <c r="P13">
+        <v>0.2511073801535239</v>
+      </c>
+      <c r="Q13">
+        <v>4.846790417165111</v>
+      </c>
+      <c r="R13">
+        <v>43.621113754486</v>
+      </c>
+      <c r="S13">
+        <v>0.01487014688596417</v>
+      </c>
+      <c r="T13">
+        <v>0.01655677397225518</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" t="s">
+        <v>26</v>
+      </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
+      <c r="F14">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G14">
+        <v>0.1370353333333333</v>
+      </c>
+      <c r="H14">
+        <v>0.411106</v>
+      </c>
+      <c r="I14">
+        <v>0.06120096848263116</v>
+      </c>
+      <c r="J14">
+        <v>0.06593503529100808</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>40.25188966666666</v>
+      </c>
+      <c r="N14">
+        <v>120.755669</v>
+      </c>
+      <c r="O14">
+        <v>0.2765168222435087</v>
+      </c>
+      <c r="P14">
+        <v>0.2857748928413986</v>
+      </c>
+      <c r="Q14">
+        <v>5.515931117768222</v>
+      </c>
+      <c r="R14">
+        <v>49.643380059914</v>
+      </c>
+      <c r="S14">
+        <v>0.0169230973230423</v>
+      </c>
+      <c r="T14">
+        <v>0.01884257764478167</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" t="s">
+        <v>22</v>
+      </c>
+      <c r="E15">
+        <v>1</v>
+      </c>
+      <c r="F15">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G15">
+        <v>0.1370353333333333</v>
+      </c>
+      <c r="H15">
+        <v>0.411106</v>
+      </c>
+      <c r="I15">
+        <v>0.06120096848263116</v>
+      </c>
+      <c r="J15">
+        <v>0.06593503529100808</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>50.41540533333333</v>
+      </c>
+      <c r="N15">
+        <v>151.246216</v>
+      </c>
+      <c r="O15">
+        <v>0.3463367258118153</v>
+      </c>
+      <c r="P15">
+        <v>0.3579324393463219</v>
+      </c>
+      <c r="Q15">
+        <v>6.908691874988445</v>
+      </c>
+      <c r="R15">
+        <v>62.178226874896</v>
+      </c>
+      <c r="S15">
+        <v>0.02119614304078658</v>
+      </c>
+      <c r="T15">
+        <v>0.02360028802009635</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
         <v>23</v>
       </c>
-      <c r="D11" t="s">
+      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="F16">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G16">
+        <v>0.1370353333333333</v>
+      </c>
+      <c r="H16">
+        <v>0.411106</v>
+      </c>
+      <c r="I16">
+        <v>0.06120096848263116</v>
+      </c>
+      <c r="J16">
+        <v>0.06593503529100808</v>
+      </c>
+      <c r="K16">
+        <v>2</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>14.1475875</v>
+      </c>
+      <c r="N16">
+        <v>28.295175</v>
+      </c>
+      <c r="O16">
+        <v>0.09718912504005058</v>
+      </c>
+      <c r="P16">
+        <v>0.06696207863792814</v>
+      </c>
+      <c r="Q16">
+        <v>1.938719368925</v>
+      </c>
+      <c r="R16">
+        <v>11.63231621355</v>
+      </c>
+      <c r="S16">
+        <v>0.005948068578430634</v>
+      </c>
+      <c r="T16">
+        <v>0.00441514701815105</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s">
+        <v>20</v>
+      </c>
+      <c r="E17">
+        <v>2</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>0.482296</v>
+      </c>
+      <c r="H17">
+        <v>0.964592</v>
+      </c>
+      <c r="I17">
+        <v>0.2153968730349283</v>
+      </c>
+      <c r="J17">
+        <v>0.1547056174354645</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>5.383805333333334</v>
+      </c>
+      <c r="N17">
+        <v>16.151416</v>
+      </c>
+      <c r="O17">
+        <v>0.03698491560717504</v>
+      </c>
+      <c r="P17">
+        <v>0.03822320902082743</v>
+      </c>
+      <c r="Q17">
+        <v>2.596587777045334</v>
+      </c>
+      <c r="R17">
+        <v>15.579526662272</v>
+      </c>
+      <c r="S17">
+        <v>0.007966435171246219</v>
+      </c>
+      <c r="T17">
+        <v>0.005913345151931924</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" t="s">
+        <v>24</v>
+      </c>
+      <c r="C18" t="s">
+        <v>25</v>
+      </c>
+      <c r="D18" t="s">
         <v>21</v>
       </c>
-      <c r="E11">
-        <v>1</v>
-      </c>
-      <c r="F11">
-        <v>1</v>
-      </c>
-      <c r="G11">
-        <v>0.4724109294883</v>
-      </c>
-      <c r="H11">
-        <v>0.4724109294883</v>
-      </c>
-      <c r="I11">
-        <v>0.3040994600051097</v>
-      </c>
-      <c r="J11">
-        <v>0.3040994600051097</v>
-      </c>
-      <c r="K11">
-        <v>1</v>
-      </c>
-      <c r="L11">
-        <v>1</v>
-      </c>
-      <c r="M11">
-        <v>14.016654013191</v>
-      </c>
-      <c r="N11">
-        <v>14.016654013191</v>
-      </c>
-      <c r="O11">
-        <v>0.1000799688552785</v>
-      </c>
-      <c r="P11">
-        <v>0.1000799688552785</v>
-      </c>
-      <c r="Q11">
-        <v>6.62162055068747</v>
-      </c>
-      <c r="R11">
-        <v>6.62162055068747</v>
-      </c>
-      <c r="S11">
-        <v>0.0304342644862184</v>
-      </c>
-      <c r="T11">
-        <v>0.0304342644862184</v>
+      <c r="E18">
+        <v>2</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>0.482296</v>
+      </c>
+      <c r="H18">
+        <v>0.964592</v>
+      </c>
+      <c r="I18">
+        <v>0.2153968730349283</v>
+      </c>
+      <c r="J18">
+        <v>0.1547056174354645</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>35.36891033333333</v>
+      </c>
+      <c r="N18">
+        <v>106.106731</v>
+      </c>
+      <c r="O18">
+        <v>0.2429724112974505</v>
+      </c>
+      <c r="P18">
+        <v>0.2511073801535239</v>
+      </c>
+      <c r="Q18">
+        <v>17.05828397812533</v>
+      </c>
+      <c r="R18">
+        <v>102.349703868752</v>
+      </c>
+      <c r="S18">
+        <v>0.05233549762722733</v>
+      </c>
+      <c r="T18">
+        <v>0.03884772228925282</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" t="s">
+        <v>24</v>
+      </c>
+      <c r="C19" t="s">
+        <v>25</v>
+      </c>
+      <c r="D19" t="s">
+        <v>26</v>
+      </c>
+      <c r="E19">
+        <v>2</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>0.482296</v>
+      </c>
+      <c r="H19">
+        <v>0.964592</v>
+      </c>
+      <c r="I19">
+        <v>0.2153968730349283</v>
+      </c>
+      <c r="J19">
+        <v>0.1547056174354645</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>40.25188966666666</v>
+      </c>
+      <c r="N19">
+        <v>120.755669</v>
+      </c>
+      <c r="O19">
+        <v>0.2765168222435087</v>
+      </c>
+      <c r="P19">
+        <v>0.2857748928413986</v>
+      </c>
+      <c r="Q19">
+        <v>19.41332537867466</v>
+      </c>
+      <c r="R19">
+        <v>116.479952272048</v>
+      </c>
+      <c r="S19">
+        <v>0.05956085885280687</v>
+      </c>
+      <c r="T19">
+        <v>0.04421098124458227</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>24</v>
+      </c>
+      <c r="C20" t="s">
+        <v>25</v>
+      </c>
+      <c r="D20" t="s">
+        <v>22</v>
+      </c>
+      <c r="E20">
+        <v>2</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>0.482296</v>
+      </c>
+      <c r="H20">
+        <v>0.964592</v>
+      </c>
+      <c r="I20">
+        <v>0.2153968730349283</v>
+      </c>
+      <c r="J20">
+        <v>0.1547056174354645</v>
+      </c>
+      <c r="K20">
+        <v>3</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>50.41540533333333</v>
+      </c>
+      <c r="N20">
+        <v>151.246216</v>
+      </c>
+      <c r="O20">
+        <v>0.3463367258118153</v>
+      </c>
+      <c r="P20">
+        <v>0.3579324393463219</v>
+      </c>
+      <c r="Q20">
+        <v>24.31514833064533</v>
+      </c>
+      <c r="R20">
+        <v>145.890889983872</v>
+      </c>
+      <c r="S20">
+        <v>0.07459984775702035</v>
+      </c>
+      <c r="T20">
+        <v>0.05537415902925467</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>24</v>
+      </c>
+      <c r="C21" t="s">
+        <v>25</v>
+      </c>
+      <c r="D21" t="s">
+        <v>23</v>
+      </c>
+      <c r="E21">
+        <v>2</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>0.482296</v>
+      </c>
+      <c r="H21">
+        <v>0.964592</v>
+      </c>
+      <c r="I21">
+        <v>0.2153968730349283</v>
+      </c>
+      <c r="J21">
+        <v>0.1547056174354645</v>
+      </c>
+      <c r="K21">
+        <v>2</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>14.1475875</v>
+      </c>
+      <c r="N21">
+        <v>28.295175</v>
+      </c>
+      <c r="O21">
+        <v>0.09718912504005058</v>
+      </c>
+      <c r="P21">
+        <v>0.06696207863792814</v>
+      </c>
+      <c r="Q21">
+        <v>6.823324860900001</v>
+      </c>
+      <c r="R21">
+        <v>27.2932994436</v>
+      </c>
+      <c r="S21">
+        <v>0.02093423362662754</v>
+      </c>
+      <c r="T21">
+        <v>0.0103594097204428</v>
       </c>
     </row>
   </sheetData>
